--- a/fall_2022_ph.xlsx
+++ b/fall_2022_ph.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/alanna_leale_wur_nl/Documents/2022_fall_exp/data/ph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/alanna_leale_wur_nl/Documents/2022_fall_exp_leale/data/ph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="13_ncr:1_{8630BCEB-8C0F-124E-8B3F-92C3D39D7D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC70A235-48A2-7942-8A69-DBBDE61B3B5C}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="13_ncr:1_{8630BCEB-8C0F-124E-8B3F-92C3D39D7D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB199A40-12B1-3341-9CFE-AF208636C34F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{47553A8A-2032-A24F-A185-1C2C097551CC}"/>
+    <workbookView xWindow="34340" yWindow="-4460" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{47553A8A-2032-A24F-A185-1C2C097551CC}"/>
   </bookViews>
   <sheets>
     <sheet name="print" sheetId="1" r:id="rId1"/>
     <sheet name="forR" sheetId="2" r:id="rId2"/>
-    <sheet name="topbottomtest" sheetId="3" r:id="rId3"/>
-    <sheet name="topbottomtest_diff" sheetId="5" r:id="rId4"/>
+    <sheet name="read.me" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="77">
   <si>
     <t>community</t>
   </si>
@@ -203,18 +202,6 @@
     <t>ph</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>ph_bot</t>
-  </si>
-  <si>
-    <t>ph_top</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>EX_1</t>
   </si>
   <si>
@@ -237,13 +224,71 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>date of pH measuring</t>
+  </si>
+  <si>
+    <t>forR</t>
+  </si>
+  <si>
+    <t>raw data to be imported and analysed in R</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for data collection in lab, copied into tab "forR" </t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>transfering from top 20mL (top), bottom 20mL (bottom), normally (con), tube sealed and kept on spinner (mix), ecoli added at every transfer (inv), ecoli line recovering with no ecoli added (rec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combination of treatment + replicate </t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>area of tube sampled from (i.e., upper 20mL = up, lower 20mL = low, entire tube mixed = all)</t>
+  </si>
+  <si>
+    <t>replicate 1-6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 = day of inoculation. Fermentation regime: 72hrs @ 28 C, backslopped (t01), 24 hrs @ 4 C, 72 hours @28 C, backslopped (t02). Repeat. So, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t02 refers to end product of t01.</t>
+    </r>
+  </si>
+  <si>
+    <t>acidity measured at room temperature</t>
+  </si>
+  <si>
+    <t>excel tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +298,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,12 +357,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,9 +384,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,7 +424,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -474,7 +530,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -626,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334B52CF-9E6C-5D41-9A65-76998E07DCC9}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1444,10 +1500,18 @@
   <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1457,7 +1521,7 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -5471,13 +5535,13 @@
         <v>14</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F202" s="1">
         <v>3.2160000000000002</v>
@@ -5491,13 +5555,13 @@
         <v>14</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D203" s="1">
         <v>2</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F203" s="1">
         <v>3.2610000000000001</v>
@@ -5511,13 +5575,13 @@
         <v>14</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D204" s="1">
         <v>3</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F204" s="1">
         <v>3.2469999999999999</v>
@@ -5531,13 +5595,13 @@
         <v>14</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D205" s="1">
         <v>4</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F205" s="1">
         <v>3.2669999999999999</v>
@@ -5551,13 +5615,13 @@
         <v>14</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D206" s="1">
         <v>5</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F206" s="1">
         <v>3.2370000000000001</v>
@@ -5571,13 +5635,13 @@
         <v>14</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D207" s="1">
         <v>6</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F207" s="1">
         <v>3.246</v>
@@ -6347,13 +6411,13 @@
         <v>16</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D246" s="1">
         <v>1</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F246" s="1">
         <v>3.1779999999999999</v>
@@ -6367,13 +6431,13 @@
         <v>16</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D247" s="1">
         <v>2</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F247" s="1">
         <v>3.2269999999999999</v>
@@ -6387,13 +6451,13 @@
         <v>16</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D248" s="1">
         <v>3</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F248" s="1">
         <v>3.2549999999999999</v>
@@ -6407,13 +6471,13 @@
         <v>16</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D249" s="1">
         <v>4</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F249" s="1">
         <v>3.218</v>
@@ -6427,13 +6491,13 @@
         <v>16</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D250" s="1">
         <v>5</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F250" s="1">
         <v>3.25</v>
@@ -6447,13 +6511,13 @@
         <v>16</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D251" s="1">
         <v>6</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F251" s="1">
         <v>3.2330000000000001</v>
@@ -7145,13 +7209,13 @@
         <v>18</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D286" s="1">
         <v>1</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F286" s="1">
         <v>3.2360000000000002</v>
@@ -7165,13 +7229,13 @@
         <v>18</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D287" s="1">
         <v>2</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F287" s="1">
         <v>3.2829999999999999</v>
@@ -7185,13 +7249,13 @@
         <v>18</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D288" s="1">
         <v>3</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F288" s="1">
         <v>3.2839999999999998</v>
@@ -7205,13 +7269,13 @@
         <v>18</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D289" s="1">
         <v>4</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F289" s="1">
         <v>3.2440000000000002</v>
@@ -7225,13 +7289,13 @@
         <v>18</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D290" s="1">
         <v>5</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F290" s="1">
         <v>3.25</v>
@@ -7245,13 +7309,13 @@
         <v>18</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D291" s="1">
         <v>6</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F291" s="1">
         <v>3.28</v>
@@ -7264,2717 +7328,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38484D4-7AAE-C34B-9D90-A916F38630DB}">
-  <dimension ref="A1:F97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1426BDB9-CB58-E04C-A3F2-96A2BBD34550}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="163.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3.327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3.274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.2890000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.2770000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3.266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3.258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3.2229999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3.2829999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3.286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3.234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3.254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3.2490000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3.2850000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3.3610000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3.3620000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3.3079999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3.3039999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3.3130000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3.3759999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3.2669999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3.2679999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3.2629999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3.274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3.3090000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3.3029999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3.3420000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3.3050000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>8</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1">
-        <v>8</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3.355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1">
-        <v>8</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3.294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3.3170000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>8</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3.3149999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>8</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3.306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>8</v>
-      </c>
-      <c r="F40" s="1">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1">
-        <v>8</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3.302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1">
-        <v>8</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3.3420000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="1">
-        <v>6</v>
-      </c>
-      <c r="E43" s="1">
-        <v>8</v>
-      </c>
-      <c r="F43" s="1">
-        <v>3.3839999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>8</v>
-      </c>
-      <c r="F44" s="1">
-        <v>3.2909999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>8</v>
-      </c>
-      <c r="F45" s="1">
-        <v>3.278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
-        <v>8</v>
-      </c>
-      <c r="F46" s="1">
-        <v>3.282</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1">
-        <v>8</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3.302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1">
-        <v>8</v>
-      </c>
-      <c r="F48" s="1">
-        <v>3.278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1">
-        <v>8</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3.2839999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3.3479999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>10</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>10</v>
-      </c>
-      <c r="F52" s="1">
-        <v>3.3559999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1">
-        <v>10</v>
-      </c>
-      <c r="F53" s="1">
-        <v>3.3540000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="1">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1">
-        <v>10</v>
-      </c>
-      <c r="F54" s="1">
-        <v>3.3690000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="1">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1">
-        <v>10</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3.4060000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>10</v>
-      </c>
-      <c r="F56" s="1">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-      <c r="E57" s="1">
-        <v>10</v>
-      </c>
-      <c r="F57" s="1">
-        <v>3.302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
-        <v>10</v>
-      </c>
-      <c r="F58" s="1">
-        <v>3.2770000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1">
-        <v>10</v>
-      </c>
-      <c r="F59" s="1">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="1">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1">
-        <v>10</v>
-      </c>
-      <c r="F60" s="1">
-        <v>3.3260000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="1">
-        <v>6</v>
-      </c>
-      <c r="E61" s="1">
-        <v>10</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3.3439999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>14</v>
-      </c>
-      <c r="F62" s="1">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1">
-        <v>14</v>
-      </c>
-      <c r="F63" s="1">
-        <v>3.2709999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3</v>
-      </c>
-      <c r="E64" s="1">
-        <v>14</v>
-      </c>
-      <c r="F64" s="1">
-        <v>3.298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="1">
-        <v>4</v>
-      </c>
-      <c r="E65" s="1">
-        <v>14</v>
-      </c>
-      <c r="F65" s="1">
-        <v>3.2229999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="1">
-        <v>5</v>
-      </c>
-      <c r="E66" s="1">
-        <v>14</v>
-      </c>
-      <c r="F66" s="1">
-        <v>3.2919999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="1">
-        <v>6</v>
-      </c>
-      <c r="E67" s="1">
-        <v>14</v>
-      </c>
-      <c r="F67" s="1">
-        <v>3.2330000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1">
-        <v>14</v>
-      </c>
-      <c r="F68" s="1">
-        <v>3.2160000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1">
-        <v>14</v>
-      </c>
-      <c r="F69" s="1">
-        <v>3.2610000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="1">
-        <v>3</v>
-      </c>
-      <c r="E70" s="1">
-        <v>14</v>
-      </c>
-      <c r="F70" s="1">
-        <v>3.2469999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="1">
-        <v>4</v>
-      </c>
-      <c r="E71" s="1">
-        <v>14</v>
-      </c>
-      <c r="F71" s="1">
-        <v>3.2669999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="1">
-        <v>5</v>
-      </c>
-      <c r="E72" s="1">
-        <v>14</v>
-      </c>
-      <c r="F72" s="1">
-        <v>3.2370000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>44851</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="1">
-        <v>6</v>
-      </c>
-      <c r="E73" s="1">
-        <v>14</v>
-      </c>
-      <c r="F73" s="1">
-        <v>3.246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1">
-        <v>16</v>
-      </c>
-      <c r="F74" s="1">
-        <v>3.2850000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2</v>
-      </c>
-      <c r="E75" s="1">
-        <v>16</v>
-      </c>
-      <c r="F75" s="1">
-        <v>3.3170000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="1">
-        <v>3</v>
-      </c>
-      <c r="E76" s="1">
-        <v>16</v>
-      </c>
-      <c r="F76" s="1">
-        <v>3.3159999999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="1">
-        <v>4</v>
-      </c>
-      <c r="E77" s="1">
-        <v>16</v>
-      </c>
-      <c r="F77" s="1">
-        <v>3.2269999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="1">
-        <v>5</v>
-      </c>
-      <c r="E78" s="1">
-        <v>16</v>
-      </c>
-      <c r="F78" s="1">
-        <v>3.2709999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="1">
-        <v>6</v>
-      </c>
-      <c r="E79" s="1">
-        <v>16</v>
-      </c>
-      <c r="F79" s="1">
-        <v>3.3170000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="1">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1">
-        <v>16</v>
-      </c>
-      <c r="F80" s="1">
-        <v>3.2120000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="1">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1">
-        <v>16</v>
-      </c>
-      <c r="F81" s="1">
-        <v>3.222</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="1">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1">
-        <v>16</v>
-      </c>
-      <c r="F82" s="1">
-        <v>3.2250000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="1">
-        <v>4</v>
-      </c>
-      <c r="E83" s="1">
-        <v>16</v>
-      </c>
-      <c r="F83" s="1">
-        <v>3.1890000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="1">
-        <v>5</v>
-      </c>
-      <c r="E84" s="1">
-        <v>16</v>
-      </c>
-      <c r="F84" s="1">
-        <v>3.2170000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>44858</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="1">
-        <v>6</v>
-      </c>
-      <c r="E85" s="1">
-        <v>16</v>
-      </c>
-      <c r="F85" s="1">
-        <v>3.1949999999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1">
-        <v>18</v>
-      </c>
-      <c r="F86" s="1">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="1">
-        <v>2</v>
-      </c>
-      <c r="E87" s="1">
-        <v>18</v>
-      </c>
-      <c r="F87" s="1">
-        <v>3.2869999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="1">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1">
-        <v>18</v>
-      </c>
-      <c r="F88" s="1">
-        <v>3.2120000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="1">
-        <v>4</v>
-      </c>
-      <c r="E89" s="1">
-        <v>18</v>
-      </c>
-      <c r="F89" s="1">
-        <v>3.1960000000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="1">
-        <v>5</v>
-      </c>
-      <c r="E90" s="1">
-        <v>18</v>
-      </c>
-      <c r="F90" s="1">
-        <v>3.2469999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="1">
-        <v>6</v>
-      </c>
-      <c r="E91" s="1">
-        <v>18</v>
-      </c>
-      <c r="F91" s="1">
-        <v>3.306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="1">
-        <v>1</v>
-      </c>
-      <c r="E92" s="1">
-        <v>18</v>
-      </c>
-      <c r="F92" s="1">
-        <v>3.2210000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="1">
-        <v>2</v>
-      </c>
-      <c r="E93" s="1">
-        <v>18</v>
-      </c>
-      <c r="F93" s="1">
-        <v>3.2090000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="1">
-        <v>3</v>
-      </c>
-      <c r="E94" s="1">
-        <v>18</v>
-      </c>
-      <c r="F94" s="1">
-        <v>3.1960000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="1">
-        <v>4</v>
-      </c>
-      <c r="E95" s="1">
-        <v>18</v>
-      </c>
-      <c r="F95" s="1">
-        <v>3.194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="1">
-        <v>5</v>
-      </c>
-      <c r="E96" s="1">
-        <v>18</v>
-      </c>
-      <c r="F96" s="1">
-        <v>3.173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="1">
-        <v>6</v>
-      </c>
-      <c r="E97" s="1">
-        <v>18</v>
-      </c>
-      <c r="F97" s="1">
-        <v>3.218</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D4D9D4-A1F7-7F42-A468-ED5C1FD25267}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.254</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.282</v>
-      </c>
-      <c r="G2">
-        <f>F2-E2</f>
-        <v>2.8000000000000025E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3.26</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3.327</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G31" si="0">F3-E3</f>
-        <v>6.7000000000000171E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.2770000000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3.274</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>-3.0000000000001137E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.266</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.2890000000000001</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>2.3000000000000131E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.258</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.29</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>3.2000000000000028E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.2229999999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.238</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000124E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.2829999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.3610000000000002</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>7.8000000000000291E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.286</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3.3620000000000001</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>7.6000000000000068E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.234</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.3079999999999998</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>7.3999999999999844E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.254</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3.3039999999999998</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999822E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3.2490000000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3.3130000000000002</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>6.4000000000000057E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.2850000000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3.3759999999999999</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>9.0999999999999748E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3.3149999999999999</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>4.8000000000000043E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3.306</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>3.8000000000000256E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.2629999999999999</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3.28</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>1.6999999999999904E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3.274</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3.302</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000025E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3.3090000000000002</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3.3420000000000001</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>3.2999999999999918E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3.3029999999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3.3839999999999999</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>8.0999999999999961E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3.2909999999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3.3420000000000001</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>5.1000000000000156E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3.278</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3.3050000000000002</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>2.7000000000000135E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3.282</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3.23</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>-5.2000000000000046E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3.302</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3.355</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>5.2999999999999936E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3.278</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3.294</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>1.6000000000000014E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3.2839999999999998</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3.3170000000000002</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000362E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3.3479999999999999</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>9.7999999999999865E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3.302</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3.35</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>4.8000000000000043E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3.2770000000000001</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3.3559999999999999</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>7.8999999999999737E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3.3540000000000001</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>5.400000000000027E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3.3260000000000001</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3.3690000000000002</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>4.3000000000000149E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1">
-        <v>3.3439999999999999</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3.4060000000000001</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>6.2000000000000277E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33">
-        <f>AVERAGE(G2:G31)</f>
-        <v>4.5066666666666706E-2</v>
+      <c r="B12" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
